--- a/lineup.xlsx
+++ b/lineup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="282">
   <si>
     <t xml:space="preserve">sobota 20. 07.</t>
   </si>
@@ -109,18 +109,48 @@
     <t xml:space="preserve">Signs of algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">bel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metalcore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krneki</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hellavista</t>
   </si>
   <si>
+    <t xml:space="preserve">aut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni neki baš</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eternal delyria</t>
   </si>
   <si>
+    <t xml:space="preserve">death metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr uredu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Klynt</t>
   </si>
   <si>
+    <t xml:space="preserve">power metal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molybaron</t>
   </si>
   <si>
+    <t xml:space="preserve">fra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coexistence</t>
   </si>
   <si>
@@ -139,42 +169,84 @@
     <t xml:space="preserve">Ten ton slug</t>
   </si>
   <si>
+    <t xml:space="preserve">irl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doom/sludge metal</t>
+  </si>
+  <si>
     <t xml:space="preserve">16:30 - 17:10</t>
   </si>
   <si>
     <t xml:space="preserve">Unhuman insurrection</t>
   </si>
   <si>
+    <t xml:space="preserve">o boh ne</t>
+  </si>
+  <si>
     <t xml:space="preserve">17:30 - 18:20</t>
   </si>
   <si>
     <t xml:space="preserve">Lucifer</t>
   </si>
   <si>
+    <t xml:space="preserve">swe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definitivno ni metal ampak ni slabo</t>
+  </si>
+  <si>
     <t xml:space="preserve">18:45 - 19:35</t>
   </si>
   <si>
     <t xml:space="preserve">Alien Weaponry</t>
   </si>
   <si>
+    <t xml:space="preserve">nzl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni glih moj stil sam ce ni bolsga</t>
+  </si>
+  <si>
     <t xml:space="preserve">20:00 - 21:00</t>
   </si>
   <si>
     <t xml:space="preserve">While she sleeps</t>
   </si>
   <si>
+    <t xml:space="preserve">gb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metaldeathcore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mixed feels ce bos meu se koga k bi su</t>
+  </si>
+  <si>
     <t xml:space="preserve">21:30 - 22:40</t>
   </si>
   <si>
     <t xml:space="preserve">Neurosis</t>
   </si>
   <si>
+    <t xml:space="preserve">usa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bl ne k ja</t>
+  </si>
+  <si>
     <t xml:space="preserve">23:10 - 00:30</t>
   </si>
   <si>
     <t xml:space="preserve">Arch enemy</t>
   </si>
   <si>
+    <t xml:space="preserve">ne</t>
+  </si>
+  <si>
     <t xml:space="preserve">second</t>
   </si>
   <si>
@@ -184,126 +256,291 @@
     <t xml:space="preserve">Fearancy</t>
   </si>
   <si>
+    <t xml:space="preserve">metalcore bl k ne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">če hočš slb cover band limp bizkit brez kletvic</t>
+  </si>
+  <si>
     <t xml:space="preserve">16:25 - 17:00</t>
   </si>
   <si>
     <t xml:space="preserve">Hexa mera</t>
   </si>
   <si>
+    <t xml:space="preserve">melodeath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr konkretn dobr</t>
+  </si>
+  <si>
     <t xml:space="preserve">17:20 - 18:00</t>
   </si>
   <si>
     <t xml:space="preserve">Siska</t>
   </si>
   <si>
+    <t xml:space="preserve">wannabe iron maiden? Ni lih dobr</t>
+  </si>
+  <si>
     <t xml:space="preserve">18:20 - 19:05</t>
   </si>
   <si>
     <t xml:space="preserve">Leeched</t>
   </si>
   <si>
+    <t xml:space="preserve">hard/grindcore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr uredu mau suicidaly se splača pogledat</t>
+  </si>
+  <si>
     <t xml:space="preserve">19:25 - 20:10</t>
   </si>
   <si>
     <t xml:space="preserve">Rolo Tomassi</t>
   </si>
   <si>
+    <t xml:space="preserve">experimental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">je kr uredu sam preveč non metal če nimaš druzga</t>
+  </si>
+  <si>
     <t xml:space="preserve">20:35 - 21:25</t>
   </si>
   <si>
     <t xml:space="preserve">October tide</t>
   </si>
   <si>
+    <t xml:space="preserve">Melo doom/death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni bed se splača</t>
+  </si>
+  <si>
     <t xml:space="preserve">21:50 - 22:50</t>
   </si>
   <si>
     <t xml:space="preserve">Dornenreich</t>
   </si>
   <si>
+    <t xml:space="preserve">melo/symph black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vokal v de kaj čš bolšga</t>
+  </si>
+  <si>
     <t xml:space="preserve">00:30 - 01:40</t>
   </si>
   <si>
     <t xml:space="preserve">Necrophobic</t>
   </si>
   <si>
+    <t xml:space="preserve">death/black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zelo dobr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Distruzione</t>
   </si>
   <si>
+    <t xml:space="preserve">ni slabo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heathenspawn</t>
   </si>
   <si>
+    <t xml:space="preserve">aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr konkretno dobr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bel o kan</t>
   </si>
   <si>
+    <t xml:space="preserve">če daš pičko v bend še ne pomen da bo dobr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moonskin</t>
   </si>
   <si>
+    <t xml:space="preserve">heavy/doom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skor k pentagram sam slb ženski vokal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Incursed</t>
   </si>
   <si>
+    <t xml:space="preserve">esp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folk/pagan/blackish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weak vokal</t>
+  </si>
+  <si>
     <t xml:space="preserve">torek 23. 07.</t>
   </si>
   <si>
     <t xml:space="preserve">Voice of ruin</t>
   </si>
   <si>
+    <t xml:space="preserve">bl deathen trash kr dobr</t>
+  </si>
+  <si>
     <t xml:space="preserve">W.E.B.</t>
   </si>
   <si>
+    <t xml:space="preserve">grc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gothic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni slabo sam ni pa tut neki ful</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infected rain</t>
   </si>
   <si>
+    <t xml:space="preserve">mld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal/deathcore</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Vintage Caravan</t>
   </si>
   <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blues/prog rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni slabo sam ne spada na kemp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rise of the northstar</t>
   </si>
   <si>
+    <t xml:space="preserve">rap metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">japan influ limp bizkit neki ni slabo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finntroll</t>
   </si>
   <si>
+    <t xml:space="preserve">fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFINITIVNO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Architects</t>
   </si>
   <si>
     <t xml:space="preserve">The bearded bastards</t>
   </si>
   <si>
+    <t xml:space="preserve">funhardcore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr zabavno</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reject the sickness</t>
   </si>
   <si>
+    <t xml:space="preserve">melo core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dobr je pejt pogledat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kairos</t>
   </si>
   <si>
     <t xml:space="preserve">Alkaloid</t>
   </si>
   <si>
+    <t xml:space="preserve">deu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">progdeath</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ritam nereda</t>
   </si>
   <si>
+    <t xml:space="preserve">srb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punkmetal/hc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treba da se podpira</t>
+  </si>
+  <si>
     <t xml:space="preserve">20:35 - 21:20</t>
   </si>
   <si>
     <t xml:space="preserve">Noctiferia</t>
   </si>
   <si>
+    <t xml:space="preserve">lahko</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tribulation</t>
   </si>
   <si>
     <t xml:space="preserve">In the woods</t>
   </si>
   <si>
+    <t xml:space="preserve">nor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black/prog/pagan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">počasn ampak dobr za zaklučt dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slave pit</t>
   </si>
   <si>
+    <t xml:space="preserve">bulg</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Privateer</t>
   </si>
   <si>
+    <t xml:space="preserve">zabavno</t>
+  </si>
+  <si>
     <t xml:space="preserve">Islay</t>
   </si>
   <si>
+    <t xml:space="preserve">melo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esodic</t>
   </si>
   <si>
+    <t xml:space="preserve">jor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dead season</t>
   </si>
   <si>
@@ -313,67 +550,157 @@
     <t xml:space="preserve">Supreme carnage</t>
   </si>
   <si>
+    <t xml:space="preserve">propr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Altair</t>
   </si>
   <si>
+    <t xml:space="preserve">prog/power</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dead Label</t>
   </si>
   <si>
+    <t xml:space="preserve">deathcore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr dobr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kalmah</t>
   </si>
   <si>
+    <t xml:space="preserve">melo/power</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kvelertak</t>
   </si>
   <si>
+    <t xml:space="preserve">ni slabo ni metal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rotting Christ</t>
   </si>
   <si>
+    <t xml:space="preserve">blk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">čeprou je biu tazadn album flop</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dream Theater</t>
   </si>
   <si>
+    <t xml:space="preserve">bojo intro pa outro zaigral</t>
+  </si>
+  <si>
     <t xml:space="preserve">Athiria</t>
   </si>
   <si>
+    <t xml:space="preserve">au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niso slabi se splača</t>
+  </si>
+  <si>
     <t xml:space="preserve">Glista</t>
   </si>
   <si>
+    <t xml:space="preserve">grind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def</t>
+  </si>
+  <si>
     <t xml:space="preserve">17:20 - 18:05</t>
   </si>
   <si>
     <t xml:space="preserve">Atrexial</t>
   </si>
   <si>
+    <t xml:space="preserve">black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr konkretn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hour of penance</t>
   </si>
   <si>
+    <t xml:space="preserve">tehnical death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definitivno</t>
+  </si>
+  <si>
     <t xml:space="preserve">Une misere</t>
   </si>
   <si>
+    <t xml:space="preserve">isl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardcore</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stoned jesus</t>
   </si>
   <si>
+    <t xml:space="preserve">ukr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stoner rock</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saturnus</t>
   </si>
   <si>
+    <t xml:space="preserve">den</t>
+  </si>
+  <si>
     <t xml:space="preserve">Akercocke</t>
   </si>
   <si>
+    <t xml:space="preserve">gbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prog death</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scardust</t>
   </si>
   <si>
+    <t xml:space="preserve">isr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oyvey ne (drgač svaka ji čast na vokalu)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shade of hatred</t>
   </si>
   <si>
     <t xml:space="preserve">Infinitas</t>
   </si>
   <si>
+    <t xml:space="preserve">folk/heavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cringe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leave scars</t>
   </si>
   <si>
+    <t xml:space="preserve">oldskul trash še kr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Countless skies</t>
   </si>
   <si>
-    <t xml:space="preserve">Äetrtek 25. 07.</t>
+    <t xml:space="preserve">še kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">četrtek 25. 07.</t>
   </si>
   <si>
     <t xml:space="preserve">Morost</t>
@@ -382,27 +709,45 @@
     <t xml:space="preserve">Hydra</t>
   </si>
   <si>
+    <t xml:space="preserve">symph</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bloodshot Dawn</t>
   </si>
   <si>
     <t xml:space="preserve">Decapitated</t>
   </si>
   <si>
+    <t xml:space="preserve">pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">konkretno</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soilwork</t>
   </si>
   <si>
+    <t xml:space="preserve">melo groove</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hypocrisy</t>
   </si>
   <si>
     <t xml:space="preserve">Demons &amp; Wizards</t>
   </si>
   <si>
+    <t xml:space="preserve">mislm so kr klasika</t>
+  </si>
+  <si>
     <t xml:space="preserve">14:35 - 15:10</t>
   </si>
   <si>
     <t xml:space="preserve">Orcus O dis</t>
   </si>
   <si>
+    <t xml:space="preserve">mex</t>
+  </si>
+  <si>
     <t xml:space="preserve">15:25 - 16:05</t>
   </si>
   <si>
@@ -422,6 +767,9 @@
   </si>
   <si>
     <t xml:space="preserve">Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can</t>
   </si>
   <si>
     <t xml:space="preserve">Liquid graveyard</t>
@@ -527,11 +875,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -547,6 +896,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFCE181E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -591,8 +955,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -605,6 +981,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -615,8 +1051,8 @@
   </sheetPr>
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G116" activeCellId="0" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -624,7 +1060,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -774,13 +1210,31 @@
       <c r="B13" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="C13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,7 +1242,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,6 +1259,15 @@
         <v>2</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -804,7 +1276,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,7 +1293,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,142 +1310,286 @@
         <v>2</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>48</v>
+        <v>68</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>50</v>
+        <v>73</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>55</v>
+        <v>77</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>67</v>
+      <c r="D37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,15 +1602,33 @@
         <v>2</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>69</v>
+        <v>107</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -984,7 +1636,16 @@
         <v>2</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>70</v>
+        <v>112</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,7 +1653,16 @@
         <v>2</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>71</v>
+        <v>114</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,142 +1670,286 @@
         <v>2</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>72</v>
+        <v>117</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>74</v>
+        <v>122</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>75</v>
+        <v>124</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>76</v>
+        <v>128</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>77</v>
+        <v>131</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>79</v>
+        <v>135</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>80</v>
+        <v>142</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>82</v>
+        <v>143</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>85</v>
+      <c r="D61" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>89</v>
+        <v>158</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,7 +1962,16 @@
         <v>2</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>90</v>
+        <v>165</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,15 +1979,33 @@
         <v>2</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>92</v>
+        <v>167</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,7 +2013,16 @@
         <v>2</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>93</v>
+        <v>171</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,142 +2030,286 @@
         <v>2</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>94</v>
+        <v>173</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>96</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>97</v>
+        <v>177</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>99</v>
+        <v>179</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>101</v>
+        <v>184</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>102</v>
+        <v>189</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>108</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>109</v>
+        <v>207</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>110</v>
+        <v>210</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>111</v>
+        <v>212</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,15 +2322,33 @@
         <v>2</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>113</v>
+        <v>215</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,7 +2356,16 @@
         <v>2</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>114</v>
+        <v>219</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,7 +2373,16 @@
         <v>2</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>115</v>
+        <v>222</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,150 +2390,249 @@
         <v>2</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>116</v>
+        <v>224</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>118</v>
+        <v>227</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>121</v>
+        <v>228</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>123</v>
+        <v>234</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>124</v>
+        <v>237</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>126</v>
+        <v>240</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>128</v>
+        <v>243</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>130</v>
+        <v>245</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>131</v>
+        <v>246</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>132</v>
+        <v>247</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>133</v>
+        <v>248</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>134</v>
+        <v>250</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>135</v>
+        <v>251</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>136</v>
+        <v>252</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,142 +2677,142 @@
         <v>2</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>145</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>154</v>
+        <v>270</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>156</v>
+        <v>272</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>158</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>162</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/lineup.xlsx
+++ b/lineup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="316">
   <si>
     <t xml:space="preserve">sobota 20. 07.</t>
   </si>
@@ -706,6 +706,9 @@
     <t xml:space="preserve">Morost</t>
   </si>
   <si>
+    <t xml:space="preserve">niso slabi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hydra</t>
   </si>
   <si>
@@ -748,81 +751,171 @@
     <t xml:space="preserve">mex</t>
   </si>
   <si>
+    <t xml:space="preserve">sredneveški melo sound dobr je</t>
+  </si>
+  <si>
     <t xml:space="preserve">15:25 - 16:05</t>
   </si>
   <si>
     <t xml:space="preserve">Heart of A Coward</t>
   </si>
   <si>
+    <t xml:space="preserve">prog/metalcore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni slabo če lahko pejt pogledat</t>
+  </si>
+  <si>
     <t xml:space="preserve">16:20 - 17:00</t>
   </si>
   <si>
     <t xml:space="preserve">Fallen Arise</t>
   </si>
   <si>
+    <t xml:space="preserve">symph/goth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bl pop metal... ne</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cliteater</t>
   </si>
   <si>
+    <t xml:space="preserve">goregrind</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skeletal remains</t>
   </si>
   <si>
+    <t xml:space="preserve">klasičn death</t>
+  </si>
+  <si>
     <t xml:space="preserve">Intervals</t>
   </si>
   <si>
     <t xml:space="preserve">can</t>
   </si>
   <si>
+    <t xml:space="preserve">prog/instrumental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni slabo ni dobr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liquid graveyard</t>
   </si>
   <si>
+    <t xml:space="preserve">death/prog/avantgard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni slabo mogoče mau preveč avantgard.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gaahls Wyrd</t>
   </si>
   <si>
+    <t xml:space="preserve">dobr sam se pokriva z hypocrisy :’(</t>
+  </si>
+  <si>
     <t xml:space="preserve">God is an astronaut</t>
   </si>
   <si>
+    <t xml:space="preserve">postrock</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lurking</t>
   </si>
   <si>
+    <t xml:space="preserve">še kr sam ni neki baš</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arcanus</t>
   </si>
   <si>
+    <t xml:space="preserve">groove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni nek presežk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Immortal shadow</t>
   </si>
   <si>
     <t xml:space="preserve">Swarm of serpents</t>
   </si>
   <si>
+    <t xml:space="preserve">black/death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pejt pogledat k ni bed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Captain morgan's revenge</t>
   </si>
   <si>
+    <t xml:space="preserve">meh sej ni bed no</t>
+  </si>
+  <si>
     <t xml:space="preserve">petek 26. 07.</t>
   </si>
   <si>
     <t xml:space="preserve">Winterhorde</t>
   </si>
   <si>
+    <t xml:space="preserve">meloblack</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nox vorago</t>
   </si>
   <si>
+    <t xml:space="preserve">prog/symph death</t>
+  </si>
+  <si>
     <t xml:space="preserve">Critical mess</t>
   </si>
   <si>
+    <t xml:space="preserve">ženski vokal sam ni slb</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bullet</t>
   </si>
   <si>
+    <t xml:space="preserve">heavy metal/rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classic heavy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tarja</t>
   </si>
   <si>
+    <t xml:space="preserve">symph neoclass neki</t>
+  </si>
+  <si>
     <t xml:space="preserve">Korpiklaani</t>
   </si>
   <si>
     <t xml:space="preserve">Dimmu borgir</t>
   </si>
   <si>
+    <t xml:space="preserve">symph black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakaj pa ne</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fleshless</t>
   </si>
   <si>
+    <t xml:space="preserve">cz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death/grind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja</t>
+  </si>
+  <si>
     <t xml:space="preserve">16:25 - 17:05</t>
   </si>
   <si>
@@ -835,6 +928,12 @@
     <t xml:space="preserve">Dopelord</t>
   </si>
   <si>
+    <t xml:space="preserve">stoner/doom metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solidno</t>
+  </si>
+  <si>
     <t xml:space="preserve">18:25 - 19:05</t>
   </si>
   <si>
@@ -842,6 +941,9 @@
   </si>
   <si>
     <t xml:space="preserve">Helstar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power/speed</t>
   </si>
   <si>
     <t xml:space="preserve">The Ruins of Beverast</t>
@@ -1051,8 +1153,8 @@
   </sheetPr>
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G116" activeCellId="0" sqref="G116"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D151" activeCellId="0" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2426,7 +2528,7 @@
         <v>24</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,13 +2536,13 @@
         <v>51</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>31</v>
@@ -2451,7 +2553,7 @@
         <v>54</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>64</v>
@@ -2468,16 +2570,16 @@
         <v>58</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,13 +2587,13 @@
         <v>62</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>6</v>
@@ -2502,7 +2604,7 @@
         <v>67</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>56</v>
@@ -2519,7 +2621,7 @@
         <v>72</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>12</v>
@@ -2528,7 +2630,7 @@
         <v>40</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,48 +2638,72 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B113" s="0" t="s">
+    <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="C113" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="D113" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C114" s="0" t="s">
+    </row>
+    <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="D115" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="C116" s="0" t="s">
+      <c r="B116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,10 +2711,16 @@
         <v>87</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>69</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,10 +2728,16 @@
         <v>91</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,10 +2745,16 @@
         <v>95</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>213</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,10 +2762,16 @@
         <v>99</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>162</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,10 +2779,16 @@
         <v>103</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>49</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,7 +2801,16 @@
         <v>2</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>253</v>
+        <v>267</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,7 +2818,16 @@
         <v>2</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>254</v>
+        <v>269</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,15 +2835,33 @@
         <v>2</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>256</v>
+        <v>272</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,12 +2869,21 @@
         <v>2</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>257</v>
+        <v>276</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,20 +2891,38 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B132" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="B132" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B133" s="0" t="s">
-        <v>260</v>
+      <c r="B133" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,7 +2930,16 @@
         <v>54</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>261</v>
+        <v>283</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,7 +2947,16 @@
         <v>58</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>262</v>
+        <v>285</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,23 +2964,50 @@
         <v>62</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B137" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="B137" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B138" s="0" t="s">
-        <v>265</v>
+      <c r="B138" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,36 +3015,72 @@
         <v>75</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B141" s="0" t="s">
-        <v>266</v>
+      <c r="B141" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>270</v>
+        <v>299</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>272</v>
+        <v>305</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,7 +3088,16 @@
         <v>91</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>273</v>
+        <v>306</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,7 +3105,10 @@
         <v>95</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>274</v>
+        <v>308</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,7 +3116,13 @@
         <v>99</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>275</v>
+        <v>309</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,7 +3130,10 @@
         <v>103</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>276</v>
+        <v>310</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,7 +3162,7 @@
         <v>2</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,7 +3178,7 @@
         <v>2</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/lineup.xlsx
+++ b/lineup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="330">
   <si>
     <t xml:space="preserve">sobota 20. 07.</t>
   </si>
@@ -736,6 +736,9 @@
     <t xml:space="preserve">Hypocrisy</t>
   </si>
   <si>
+    <t xml:space="preserve">Peter Tagtgren is my spirit animal &lt;3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Demons &amp; Wizards</t>
   </si>
   <si>
@@ -949,25 +952,64 @@
     <t xml:space="preserve">The Ruins of Beverast</t>
   </si>
   <si>
+    <t xml:space="preserve">atmos black/doom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">počasn ampak dobr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Impaled nazarene</t>
   </si>
   <si>
+    <t xml:space="preserve">definitivno (korpiklaani bojo itk zamujal k bojo pjani)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tiamat</t>
   </si>
   <si>
+    <t xml:space="preserve">gothic/doom neki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preveč rocki (vsaj poznejš) za zaklučt bo dobr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Autopsy night</t>
   </si>
   <si>
+    <t xml:space="preserve">rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brutal death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">še kr uredu loh blo bolš</t>
+  </si>
+  <si>
     <t xml:space="preserve">Obsolete incarnation</t>
   </si>
   <si>
+    <t xml:space="preserve">propr brutal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Richthammer</t>
   </si>
   <si>
     <t xml:space="preserve">Decaying days</t>
   </si>
   <si>
+    <t xml:space="preserve">melo death/doom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni slabo bi blo pa lahko bolš</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desdemonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr klasičn death</t>
   </si>
 </sst>
 </file>
@@ -1153,17 +1195,18 @@
   </sheetPr>
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D151" activeCellId="0" sqref="D151"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="47.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2613,7 +2656,7 @@
         <v>170</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,7 +2664,7 @@
         <v>72</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>12</v>
@@ -2630,7 +2673,7 @@
         <v>40</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,53 +2683,53 @@
     </row>
     <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>125</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,13 +2737,13 @@
         <v>84</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>203</v>
@@ -2711,7 +2754,7 @@
         <v>87</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>69</v>
@@ -2720,7 +2763,7 @@
         <v>24</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,16 +2771,16 @@
         <v>91</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,16 +2788,16 @@
         <v>95</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>213</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,7 +2805,7 @@
         <v>99</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>162</v>
@@ -2771,7 +2814,7 @@
         <v>199</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,13 +2822,13 @@
         <v>103</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>49</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>6</v>
@@ -2801,7 +2844,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>42</v>
@@ -2810,7 +2853,7 @@
         <v>24</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,16 +2861,16 @@
         <v>2</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>118</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,7 +2878,7 @@
         <v>2</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>118</v>
@@ -2844,7 +2887,7 @@
         <v>24</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,16 +2895,16 @@
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>4</v>
@@ -2878,12 +2921,12 @@
         <v>5</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,13 +2939,13 @@
         <v>47</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>108</v>
@@ -2913,13 +2956,13 @@
         <v>51</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>38</v>
@@ -2930,7 +2973,7 @@
         <v>54</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>12</v>
@@ -2939,7 +2982,7 @@
         <v>24</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,16 +2990,16 @@
         <v>58</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>56</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,13 +3007,13 @@
         <v>62</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>139</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>6</v>
@@ -2981,7 +3024,7 @@
         <v>67</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>139</v>
@@ -2998,16 +3041,16 @@
         <v>72</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,24 +3063,24 @@
         <v>76</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>16</v>
@@ -3051,33 +3094,33 @@
     </row>
     <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>42</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>38</v>
@@ -3088,41 +3131,50 @@
         <v>91</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>69</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E145" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+    <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B146" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="C146" s="0" t="s">
+      <c r="B146" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="D146" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B147" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C147" s="0" t="s">
+      <c r="B147" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" s="1" t="s">
         <v>199</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,10 +3182,16 @@
         <v>103</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C148" s="0" t="s">
         <v>56</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,7 +3204,16 @@
         <v>2</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>311</v>
+        <v>317</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,7 +3221,16 @@
         <v>2</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,7 +3238,16 @@
         <v>2</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>313</v>
+        <v>323</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,7 +3255,16 @@
         <v>2</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>314</v>
+        <v>324</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,7 +3272,16 @@
         <v>2</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>315</v>
+        <v>327</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
